--- a/results/mp/deberta/corona/confidence/168/stop-words-masking-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-masking-0.15/avg_0.003_scores.xlsx
@@ -121,15 +121,15 @@
     <t>positive</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>join</t>
   </si>
   <si>
@@ -142,10 +142,10 @@
     <t>safety</t>
   </si>
   <si>
+    <t>share</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>share</t>
   </si>
   <si>
     <t>care</t>
@@ -1507,25 +1507,25 @@
         <v>35</v>
       </c>
       <c r="K22">
-        <v>0.6824034334763949</v>
+        <v>0.6777777777777778</v>
       </c>
       <c r="L22">
-        <v>159</v>
+        <v>61</v>
       </c>
       <c r="M22">
-        <v>165</v>
+        <v>65</v>
       </c>
       <c r="N22">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O22">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P22" t="b">
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>74</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1533,25 +1533,25 @@
         <v>36</v>
       </c>
       <c r="K23">
-        <v>0.6777777777777778</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="L23">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="M23">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="N23">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="O23">
-        <v>0.06000000000000005</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P23" t="b">
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1559,25 +1559,25 @@
         <v>37</v>
       </c>
       <c r="K24">
-        <v>0.6764705882352942</v>
+        <v>0.6652719665271967</v>
       </c>
       <c r="L24">
-        <v>23</v>
+        <v>159</v>
       </c>
       <c r="M24">
-        <v>25</v>
+        <v>159</v>
       </c>
       <c r="N24">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>11</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1689,25 +1689,25 @@
         <v>42</v>
       </c>
       <c r="K29">
-        <v>0.599388379204893</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L29">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="M29">
-        <v>209</v>
+        <v>42</v>
       </c>
       <c r="N29">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="O29">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P29" t="b">
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>131</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1715,25 +1715,25 @@
         <v>43</v>
       </c>
       <c r="K30">
-        <v>0.5882352941176471</v>
+        <v>0.5764705882352941</v>
       </c>
       <c r="L30">
-        <v>40</v>
+        <v>196</v>
       </c>
       <c r="M30">
-        <v>42</v>
+        <v>196</v>
       </c>
       <c r="N30">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>28</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="10:17">
